--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_26_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_26_4.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
